--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCAB425-636A-4158-BC50-CC197E118A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDACCC20-63F7-4C99-BDDA-4354AED9E655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="15390" windowHeight="9593" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>巡逻</t>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>List&lt;int&gt;</t>
@@ -445,21 +441,21 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -479,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -499,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -516,10 +512,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>B4*100+C4</f>
         <v>101</v>
@@ -537,7 +533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>B5*100+C5</f>
         <v>102</v>
@@ -569,18 +565,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -600,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -640,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>B4*100+C4</f>
         <v>201</v>
